--- a/0_Data/ReadMe.xlsx
+++ b/0_Data/ReadMe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abilinski/Dropbox/Risk_Prediction/AdaptiveRiskMetrics/0_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alyssabilinsi/Dropbox (Brown)/Risk_Prediction/AdaptiveRiskMetrics/0_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CFA1F2-A15F-D843-BD36-CA81095D17F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF9FEC3-8226-FD43-A2B0-21067054EB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{1BE38142-89A3-4C42-88C1-1638E19A9450}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="33800" windowHeight="17360" xr2:uid="{1BE38142-89A3-4C42-88C1-1638E19A9450}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>File name</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
     <t>Access date</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>United_States_COVID-19_Community_Levels_by_County.csv</t>
   </si>
   <si>
-    <t>Community level data -- used to pull HSAs</t>
-  </si>
-  <si>
     <t>https://healthdata.gov/dataset/United-States-COVID-19-Community-Levels-by-County/nn5b-j5u9</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
     <t>hosps_county.csv</t>
   </si>
   <si>
-    <t>Hospitalizations by facility, used to construct HSA-level hospitalization measures</t>
-  </si>
-  <si>
     <t>us-counties-2020.csv</t>
   </si>
   <si>
@@ -110,9 +101,6 @@
     <t>us-counties-2022.csv</t>
   </si>
   <si>
-    <t>Rolling averages of COVID cases and deaths by county -- NYTimes Github (anomalies removed)</t>
-  </si>
-  <si>
     <t>https://github.com/nytimes/covid-19-data/blob/master/rolling-averages/us-counties-2020.csv</t>
   </si>
   <si>
@@ -120,6 +108,39 @@
   </si>
   <si>
     <t>https://github.com/nytimes/covid-19-data/blob/master/rolling-averages/us-counties-2022.csv</t>
+  </si>
+  <si>
+    <t>COVID-19 Reported Patient Impact and Hospital Capacity by Facility</t>
+  </si>
+  <si>
+    <t>Rolling averages of COVID cases and deaths by county, 2020 -- NYTimes Github (anomalies removed)</t>
+  </si>
+  <si>
+    <t>Rolling averages of COVID cases and deaths by county, 2021 -- NYTimes Github (anomalies removed)</t>
+  </si>
+  <si>
+    <t>Rolling averages of COVID cases and deaths by county, 2022 -- NYTimes Github (anomalies removed)</t>
+  </si>
+  <si>
+    <t>United States COVID-19 Community Levels by County</t>
+  </si>
+  <si>
+    <t>MD COVID-19 - Cases per 100K population, statewide</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>HealthData.gov</t>
+  </si>
+  <si>
+    <t>NYTimes GitHub</t>
+  </si>
+  <si>
+    <t>Maryland's Open Data Portal</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
@@ -483,18 +504,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE035C0-F17E-CF49-A422-06C756D6603A}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81" customWidth="1"/>
+    <col min="4" max="4" width="105.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,140 +526,170 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44628</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44760</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>44854</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
-        <v>44854</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>44628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>44760</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="E6" s="1">
+        <v>44874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1">
-        <v>44874</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1">
-        <v>44721</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1">
-        <v>44778</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>44854</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{2D3962E7-9405-3142-99FB-D09B61DA80BE}"/>
-    <hyperlink ref="C8" r:id="rId2" xr:uid="{EA7D4144-C290-714B-8A3B-D74EB6028B1C}"/>
-    <hyperlink ref="C9" r:id="rId3" xr:uid="{6DDDBD9B-E3FD-DC46-9229-3D88517152A2}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{5B6D191B-0E77-5A42-B5D9-BE0B75A94C46}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{C3D53FC4-0406-2943-8BFD-A0C9A098C87A}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{2DD21155-ADA5-7642-B311-57557FC253D8}"/>
-    <hyperlink ref="C3" r:id="rId7" xr:uid="{08BD995D-54D5-3A43-9CC6-78A9BE8572B7}"/>
-    <hyperlink ref="C2" r:id="rId8" xr:uid="{C1E81110-C24E-A74D-98FB-A08948C7ACF0}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{2D3962E7-9405-3142-99FB-D09B61DA80BE}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{EA7D4144-C290-714B-8A3B-D74EB6028B1C}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{6DDDBD9B-E3FD-DC46-9229-3D88517152A2}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{5B6D191B-0E77-5A42-B5D9-BE0B75A94C46}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{C3D53FC4-0406-2943-8BFD-A0C9A098C87A}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{2DD21155-ADA5-7642-B311-57557FC253D8}"/>
+    <hyperlink ref="D3" r:id="rId7" xr:uid="{08BD995D-54D5-3A43-9CC6-78A9BE8572B7}"/>
+    <hyperlink ref="D2" r:id="rId8" xr:uid="{C1E81110-C24E-A74D-98FB-A08948C7ACF0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
